--- a/Grades/Slack Participation.xlsx
+++ b/Grades/Slack Participation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wellsj/Documents/GitHub/Stat Learning F21/course-materials/Grades/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Teaching\Classes\Math 243\Fall 2021\course-materials\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2946A6-F1D0-9C47-BF4D-921F09A5DB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695F9E07-9370-49AC-AAEF-67FD184B3A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{E2B26994-3EE5-964D-9F2F-EA1665179E5C}"/>
+    <workbookView xWindow="1455" yWindow="240" windowWidth="19620" windowHeight="15330" xr2:uid="{E2B26994-3EE5-964D-9F2F-EA1665179E5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>reed_id</t>
   </si>
@@ -195,15 +195,6 @@
     <t>3-Sep</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
     <t>Column4</t>
   </si>
   <si>
@@ -232,6 +223,12 @@
   </si>
   <si>
     <t>Column13</t>
+  </si>
+  <si>
+    <t>8-Sep</t>
+  </si>
+  <si>
+    <t>10-Sep</t>
   </si>
 </sst>
 </file>
@@ -288,20 +285,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}" name="Table2" displayName="Table2" ref="A1:R22" totalsRowShown="0">
-  <autoFilter ref="A1:R22" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}" name="Table2" displayName="Table2" ref="A1:Q22" totalsRowShown="0">
+  <autoFilter ref="A1:Q22" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q22">
     <sortCondition ref="C1:C22"/>
   </sortState>
-  <tableColumns count="18">
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{77F8F90F-5C8E-BC4C-B545-FA75B259CA8F}" name="reed_id"/>
     <tableColumn id="2" xr3:uid="{7146B570-825A-7D4C-890F-90E736404710}" name="last_name"/>
     <tableColumn id="3" xr3:uid="{D61C3733-DDE0-7A4F-8F95-3BE6FC83489B}" name="first_name"/>
     <tableColumn id="4" xr3:uid="{C524DDEB-2F3A-3448-9786-159474E2DF2D}" name="1-Sep"/>
     <tableColumn id="5" xr3:uid="{A435395F-A4DA-0145-9160-A4A3311B3E8F}" name="3-Sep"/>
-    <tableColumn id="6" xr3:uid="{3068062C-FDDD-F942-90A5-D6D61F57D408}" name="Column1"/>
-    <tableColumn id="7" xr3:uid="{21C90B51-C51E-7741-B6FE-1005783D12DE}" name="Column2"/>
-    <tableColumn id="8" xr3:uid="{7C539A1E-3F4C-7045-B1EB-07944188AA66}" name="Column3"/>
+    <tableColumn id="7" xr3:uid="{21C90B51-C51E-7741-B6FE-1005783D12DE}" name="8-Sep"/>
+    <tableColumn id="8" xr3:uid="{7C539A1E-3F4C-7045-B1EB-07944188AA66}" name="10-Sep"/>
     <tableColumn id="9" xr3:uid="{9D6CF025-397E-6A46-B1AD-953EBEE70E4C}" name="Column4"/>
     <tableColumn id="10" xr3:uid="{E5A2A72B-C7D7-B24A-8379-2720F69FE7ED}" name="Column5"/>
     <tableColumn id="11" xr3:uid="{ABD79534-5A14-414D-B5C4-FBD512EF0662}" name="Column6"/>
@@ -614,20 +610,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C309FD-2083-5844-BEDB-30F87C39EC3C}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="15" max="18" width="11.6640625" customWidth="1"/>
+    <col min="14" max="17" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -643,47 +639,44 @@
       <c r="E1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>62</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>63</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>64</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>65</v>
       </c>
-      <c r="P1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>67</v>
-      </c>
-      <c r="R1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20005154</v>
       </c>
@@ -696,8 +689,17 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -713,8 +715,14 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20014500</v>
       </c>
@@ -727,8 +735,11 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20007907</v>
       </c>
@@ -744,8 +755,14 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20009766</v>
       </c>
@@ -758,8 +775,11 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20005442</v>
       </c>
@@ -775,8 +795,14 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -792,8 +818,14 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -809,8 +841,14 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -826,8 +864,14 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -840,8 +884,11 @@
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -854,8 +901,17 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20016821</v>
       </c>
@@ -871,8 +927,14 @@
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20008352</v>
       </c>
@@ -888,8 +950,14 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20005468</v>
       </c>
@@ -905,8 +973,11 @@
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -922,8 +993,14 @@
       <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20010417</v>
       </c>
@@ -939,8 +1016,14 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20016819</v>
       </c>
@@ -956,8 +1039,14 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -973,8 +1062,14 @@
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20010981</v>
       </c>
@@ -987,8 +1082,14 @@
       <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20013614</v>
       </c>
@@ -1004,8 +1105,14 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1016,6 +1123,9 @@
         <v>40</v>
       </c>
       <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>1</v>
       </c>
     </row>

--- a/Grades/Slack Participation.xlsx
+++ b/Grades/Slack Participation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Teaching\Classes\Math 243\Fall 2021\course-materials\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wellsj/Documents/GitHub/Stat Learning F21/course-materials/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695F9E07-9370-49AC-AAEF-67FD184B3A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6308656D-30F7-4D4D-8F4B-9181283FCA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="240" windowWidth="19620" windowHeight="15330" xr2:uid="{E2B26994-3EE5-964D-9F2F-EA1665179E5C}"/>
+    <workbookView xWindow="1460" yWindow="460" windowWidth="19620" windowHeight="18980" xr2:uid="{E2B26994-3EE5-964D-9F2F-EA1665179E5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,9 +195,6 @@
     <t>3-Sep</t>
   </si>
   <si>
-    <t>Column4</t>
-  </si>
-  <si>
     <t>Column5</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>10-Sep</t>
+  </si>
+  <si>
+    <t>13-Sep</t>
   </si>
 </sst>
 </file>
@@ -288,7 +288,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}" name="Table2" displayName="Table2" ref="A1:Q22" totalsRowShown="0">
   <autoFilter ref="A1:Q22" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q22">
-    <sortCondition ref="C1:C22"/>
+    <sortCondition ref="B1:B22"/>
   </sortState>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{77F8F90F-5C8E-BC4C-B545-FA75B259CA8F}" name="reed_id"/>
@@ -298,7 +298,7 @@
     <tableColumn id="5" xr3:uid="{A435395F-A4DA-0145-9160-A4A3311B3E8F}" name="3-Sep"/>
     <tableColumn id="7" xr3:uid="{21C90B51-C51E-7741-B6FE-1005783D12DE}" name="8-Sep"/>
     <tableColumn id="8" xr3:uid="{7C539A1E-3F4C-7045-B1EB-07944188AA66}" name="10-Sep"/>
-    <tableColumn id="9" xr3:uid="{9D6CF025-397E-6A46-B1AD-953EBEE70E4C}" name="Column4"/>
+    <tableColumn id="9" xr3:uid="{9D6CF025-397E-6A46-B1AD-953EBEE70E4C}" name="13-Sep"/>
     <tableColumn id="10" xr3:uid="{E5A2A72B-C7D7-B24A-8379-2720F69FE7ED}" name="Column5"/>
     <tableColumn id="11" xr3:uid="{ABD79534-5A14-414D-B5C4-FBD512EF0662}" name="Column6"/>
     <tableColumn id="12" xr3:uid="{9624906C-F40D-9249-96C8-6A8C35BE8C8C}" name="Column7"/>
@@ -612,18 +612,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C309FD-2083-5844-BEDB-30F87C39EC3C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="14" max="17" width="11.625" customWidth="1"/>
+    <col min="14" max="17" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -640,310 +640,358 @@
         <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>56</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>57</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>58</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>59</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>60</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>61</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>62</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>63</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20009766</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>20005154</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20013614</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20016819</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>20016821</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20010417</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20007907</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>20014500</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>20007907</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>20009766</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>20005442</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>20016821</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>20008352</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
       <c r="D14">
         <v>1</v>
       </c>
@@ -956,8 +1004,11 @@
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>20005468</v>
       </c>
@@ -977,84 +1028,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>20010981</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>20010417</v>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>20016819</v>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
       <c r="G18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2</v>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20005442</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1068,64 +1110,79 @@
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>20010981</v>
+        <v>20008352</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20013614</v>
+        <v>20014500</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
       <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>1</v>
       </c>
     </row>

--- a/Grades/Slack Participation.xlsx
+++ b/Grades/Slack Participation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wellsj/Documents/GitHub/Stat Learning F21/course-materials/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6308656D-30F7-4D4D-8F4B-9181283FCA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CE3155-6616-5340-9F78-83014F42DCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="460" windowWidth="19620" windowHeight="18980" xr2:uid="{E2B26994-3EE5-964D-9F2F-EA1665179E5C}"/>
+    <workbookView xWindow="1460" yWindow="460" windowWidth="26100" windowHeight="18980" xr2:uid="{E2B26994-3EE5-964D-9F2F-EA1665179E5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,9 +195,6 @@
     <t>3-Sep</t>
   </si>
   <si>
-    <t>Column5</t>
-  </si>
-  <si>
     <t>Column6</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>13-Sep</t>
+  </si>
+  <si>
+    <t>15-Sep</t>
   </si>
 </sst>
 </file>
@@ -299,7 +299,7 @@
     <tableColumn id="7" xr3:uid="{21C90B51-C51E-7741-B6FE-1005783D12DE}" name="8-Sep"/>
     <tableColumn id="8" xr3:uid="{7C539A1E-3F4C-7045-B1EB-07944188AA66}" name="10-Sep"/>
     <tableColumn id="9" xr3:uid="{9D6CF025-397E-6A46-B1AD-953EBEE70E4C}" name="13-Sep"/>
-    <tableColumn id="10" xr3:uid="{E5A2A72B-C7D7-B24A-8379-2720F69FE7ED}" name="Column5"/>
+    <tableColumn id="10" xr3:uid="{E5A2A72B-C7D7-B24A-8379-2720F69FE7ED}" name="15-Sep"/>
     <tableColumn id="11" xr3:uid="{ABD79534-5A14-414D-B5C4-FBD512EF0662}" name="Column6"/>
     <tableColumn id="12" xr3:uid="{9624906C-F40D-9249-96C8-6A8C35BE8C8C}" name="Column7"/>
     <tableColumn id="13" xr3:uid="{094B0FE9-E2A3-E340-9F10-A74B106F9240}" name="Column8"/>
@@ -613,7 +613,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,40 +640,40 @@
         <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>56</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>57</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>58</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>59</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>60</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>61</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>62</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>63</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -701,6 +701,9 @@
       <c r="H2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -747,6 +750,9 @@
       <c r="H4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -773,6 +779,9 @@
       <c r="H5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -799,6 +808,9 @@
       <c r="H6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -825,6 +837,9 @@
       <c r="H7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -851,6 +866,9 @@
       <c r="H8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -877,6 +895,9 @@
       <c r="H9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -903,6 +924,9 @@
       <c r="H10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -929,6 +953,9 @@
       <c r="H11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -955,6 +982,9 @@
       <c r="H12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -981,6 +1011,9 @@
       <c r="H13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1007,6 +1040,9 @@
       <c r="H14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1050,8 +1086,11 @@
       <c r="H16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1070,8 +1109,11 @@
       <c r="H17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1088,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>20005442</v>
       </c>
@@ -1113,8 +1155,11 @@
       <c r="H19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20008352</v>
       </c>
@@ -1139,8 +1184,11 @@
       <c r="H20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20014500</v>
       </c>
@@ -1159,8 +1207,11 @@
       <c r="H21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1183,6 +1234,9 @@
         <v>1</v>
       </c>
       <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>1</v>
       </c>
     </row>

--- a/Grades/Slack Participation.xlsx
+++ b/Grades/Slack Participation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wellsj/Documents/GitHub/Stat Learning F21/course-materials/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CE3155-6616-5340-9F78-83014F42DCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0674F02E-4EF5-194C-9BAF-B9EBCF430D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="460" windowWidth="26100" windowHeight="18980" xr2:uid="{E2B26994-3EE5-964D-9F2F-EA1665179E5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>reed_id</t>
   </si>
@@ -129,12 +129,6 @@
     <t>Gillian</t>
   </si>
   <si>
-    <t>Nguyen</t>
-  </si>
-  <si>
-    <t>Ngoc</t>
-  </si>
-  <si>
     <t>Peterson</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
     <t>3-Sep</t>
   </si>
   <si>
-    <t>Column6</t>
-  </si>
-  <si>
     <t>Column7</t>
   </si>
   <si>
@@ -229,6 +220,9 @@
   </si>
   <si>
     <t>15-Sep</t>
+  </si>
+  <si>
+    <t>20-Sep</t>
   </si>
 </sst>
 </file>
@@ -285,10 +279,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}" name="Table2" displayName="Table2" ref="A1:Q22" totalsRowShown="0">
-  <autoFilter ref="A1:Q22" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q22">
-    <sortCondition ref="B1:B22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}" name="Table2" displayName="Table2" ref="A1:Q21" totalsRowShown="0">
+  <autoFilter ref="A1:Q21" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q21">
+    <sortCondition ref="B1:B21"/>
   </sortState>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{77F8F90F-5C8E-BC4C-B545-FA75B259CA8F}" name="reed_id"/>
@@ -300,7 +294,7 @@
     <tableColumn id="8" xr3:uid="{7C539A1E-3F4C-7045-B1EB-07944188AA66}" name="10-Sep"/>
     <tableColumn id="9" xr3:uid="{9D6CF025-397E-6A46-B1AD-953EBEE70E4C}" name="13-Sep"/>
     <tableColumn id="10" xr3:uid="{E5A2A72B-C7D7-B24A-8379-2720F69FE7ED}" name="15-Sep"/>
-    <tableColumn id="11" xr3:uid="{ABD79534-5A14-414D-B5C4-FBD512EF0662}" name="Column6"/>
+    <tableColumn id="11" xr3:uid="{ABD79534-5A14-414D-B5C4-FBD512EF0662}" name="20-Sep"/>
     <tableColumn id="12" xr3:uid="{9624906C-F40D-9249-96C8-6A8C35BE8C8C}" name="Column7"/>
     <tableColumn id="13" xr3:uid="{094B0FE9-E2A3-E340-9F10-A74B106F9240}" name="Column8"/>
     <tableColumn id="14" xr3:uid="{61F04656-8D3A-3D4B-9D3B-BC28BC9454DF}" name="Column9"/>
@@ -610,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C309FD-2083-5844-BEDB-30F87C39EC3C}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -631,49 +625,49 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>58</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>60</v>
-      </c>
-      <c r="O1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -704,6 +698,9 @@
       <c r="I2">
         <v>1</v>
       </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -753,6 +750,9 @@
       <c r="I4">
         <v>1</v>
       </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -782,6 +782,9 @@
       <c r="I5">
         <v>1</v>
       </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -811,6 +814,9 @@
       <c r="I6">
         <v>1</v>
       </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -840,6 +846,9 @@
       <c r="I7">
         <v>1</v>
       </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -869,6 +878,9 @@
       <c r="I8">
         <v>1</v>
       </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -898,6 +910,9 @@
       <c r="I9">
         <v>1</v>
       </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -927,6 +942,9 @@
       <c r="I10">
         <v>1</v>
       </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -956,6 +974,9 @@
       <c r="I11">
         <v>1</v>
       </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -985,6 +1006,9 @@
       <c r="I12">
         <v>1</v>
       </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1014,6 +1038,9 @@
       <c r="I13">
         <v>1</v>
       </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1043,10 +1070,13 @@
       <c r="I14">
         <v>1</v>
       </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>20005468</v>
+        <v>20010981</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -1057,22 +1087,31 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
       <c r="F15">
         <v>1</v>
       </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>20010981</v>
+      <c r="A16" t="s">
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1080,42 +1119,36 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>41</v>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20005442</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
@@ -1126,13 +1159,28 @@
       <c r="D18">
         <v>1</v>
       </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>20005442</v>
+        <v>20008352</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
@@ -1158,10 +1206,13 @@
       <c r="I19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>20008352</v>
+        <v>20014500</v>
       </c>
       <c r="B20" t="s">
         <v>46</v>
@@ -1172,71 +1223,48 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20014500</v>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
       <c r="F21">
         <v>1</v>
       </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
+      <c r="J21">
         <v>1</v>
       </c>
     </row>

--- a/Grades/Slack Participation.xlsx
+++ b/Grades/Slack Participation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wellsj/Documents/GitHub/Stat Learning F21/course-materials/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5988403A-FEBF-0746-AE4A-8B4877C2F16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5979171-174D-6743-B448-0CCF6AFD5808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="460" windowWidth="36940" windowHeight="18980" xr2:uid="{E2B26994-3EE5-964D-9F2F-EA1665179E5C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>reed_id</t>
   </si>
@@ -55,12 +55,6 @@
     <t>Calvin</t>
   </si>
   <si>
-    <t>Berlau</t>
-  </si>
-  <si>
-    <t>Aaron</t>
-  </si>
-  <si>
     <t>Blair</t>
   </si>
   <si>
@@ -176,15 +170,6 @@
   </si>
   <si>
     <t>Arai</t>
-  </si>
-  <si>
-    <t>S64687</t>
-  </si>
-  <si>
-    <t>Zoll</t>
-  </si>
-  <si>
-    <t>Ingrid</t>
   </si>
   <si>
     <t>first_name</t>
@@ -300,10 +285,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}" name="Table2" displayName="Table2" ref="A1:R22" totalsRowShown="0">
-  <autoFilter ref="A1:R22" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R21">
-    <sortCondition ref="C1:C21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}" name="Table2" displayName="Table2" ref="A1:R20" totalsRowShown="0">
+  <autoFilter ref="A1:R20" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R19">
+    <sortCondition ref="C1:C19"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{77F8F90F-5C8E-BC4C-B545-FA75B259CA8F}" name="reed_id"/>
@@ -626,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C309FD-2083-5844-BEDB-30F87C39EC3C}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,63 +632,67 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>20005154</v>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -726,33 +715,48 @@
       <c r="K2">
         <v>1</v>
       </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>28</v>
+      <c r="A3">
+        <v>20014500</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
       <c r="I3">
         <v>1</v>
       </c>
@@ -768,16 +772,7 @@
       <c r="M3">
         <v>1</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
       <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3">
@@ -786,24 +781,30 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>20014500</v>
+        <v>20007907</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
       <c r="I4">
         <v>1</v>
       </c>
@@ -811,96 +812,105 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="R4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>20007907</v>
+        <v>20009766</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="O5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>20009766</v>
+        <v>20005442</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
       <c r="I6">
         <v>1</v>
       </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
       <c r="M6">
         <v>1</v>
       </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
       <c r="O6">
         <v>1</v>
       </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>20005442</v>
+      <c r="A7" t="s">
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
@@ -951,13 +961,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
@@ -1006,142 +1016,157 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="R9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20016821</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
         <v>14</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11">
-        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>4</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
       <c r="H11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
       <c r="P11">
         <v>1</v>
       </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
       <c r="R11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>18</v>
+      <c r="A12">
+        <v>20008352</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D12">
         <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1179,19 +1204,22 @@
       <c r="P12">
         <v>1</v>
       </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
       <c r="R12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>20016821</v>
+      <c r="A13" t="s">
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D13">
         <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
@@ -1242,13 +1270,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>20008352</v>
+        <v>20010417</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
@@ -1298,18 +1326,18 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>25</v>
+      <c r="A15">
+        <v>20016819</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1338,9 +1366,6 @@
       <c r="M15">
         <v>1</v>
       </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
       <c r="O15">
         <v>1</v>
       </c>
@@ -1355,14 +1380,14 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>20010417</v>
+      <c r="A16" t="s">
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
@@ -1413,165 +1438,147 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>20016819</v>
+        <v>20010981</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20013614</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
         <v>13</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19">
+        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20">
         <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
         <v>14</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>20010981</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19">
-        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>20013614</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>13</v>
-      </c>
       <c r="E20">
         <v>1</v>
       </c>
@@ -1611,105 +1618,12 @@
       <c r="Q20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21">
-        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22">
-        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>14</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="R22">
+      <c r="R20">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:D21">
+  <conditionalFormatting sqref="D2:D19">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>11</formula>
     </cfRule>

--- a/Grades/Slack Participation.xlsx
+++ b/Grades/Slack Participation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wellsj/Documents/GitHub/Stat Learning F21/course-materials/Grades/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Teaching\Classes\Math 243\Fall 2021\course-materials\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5979171-174D-6743-B448-0CCF6AFD5808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F3374F-EAE0-42A0-B058-1E3D9605F45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="460" windowWidth="36940" windowHeight="18980" xr2:uid="{E2B26994-3EE5-964D-9F2F-EA1665179E5C}"/>
+    <workbookView xWindow="3180" yWindow="870" windowWidth="24780" windowHeight="15330" xr2:uid="{E2B26994-3EE5-964D-9F2F-EA1665179E5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>reed_id</t>
   </si>
@@ -218,6 +220,51 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>25-Oct</t>
+  </si>
+  <si>
+    <t>27-Oct</t>
+  </si>
+  <si>
+    <t>1-Nov</t>
+  </si>
+  <si>
+    <t>3-Nov</t>
+  </si>
+  <si>
+    <t>5-Nov</t>
+  </si>
+  <si>
+    <t>8-Nov</t>
+  </si>
+  <si>
+    <t>12-Nov</t>
+  </si>
+  <si>
+    <t>15-Nov</t>
+  </si>
+  <si>
+    <t>10-Nov</t>
+  </si>
+  <si>
+    <t>17-Nov</t>
+  </si>
+  <si>
+    <t>19-Nov</t>
+  </si>
+  <si>
+    <t>24-Nov</t>
+  </si>
+  <si>
+    <t>3-Dec</t>
+  </si>
+  <si>
+    <t>6-Dec</t>
+  </si>
+  <si>
+    <t>8-Dec</t>
   </si>
 </sst>
 </file>
@@ -260,7 +307,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -285,12 +352,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}" name="Table2" displayName="Table2" ref="A1:R20" totalsRowShown="0">
-  <autoFilter ref="A1:R20" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}" name="Table2" displayName="Table2" ref="A1:AG20" totalsRowShown="0">
+  <autoFilter ref="A1:AG20" xr:uid="{F795085B-43A2-614E-8C55-2D866D6F2BB9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R19">
     <sortCondition ref="C1:C19"/>
   </sortState>
-  <tableColumns count="18">
+  <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{77F8F90F-5C8E-BC4C-B545-FA75B259CA8F}" name="reed_id"/>
     <tableColumn id="2" xr3:uid="{7146B570-825A-7D4C-890F-90E736404710}" name="last_name"/>
     <tableColumn id="3" xr3:uid="{D61C3733-DDE0-7A4F-8F95-3BE6FC83489B}" name="first_name"/>
@@ -309,6 +376,21 @@
     <tableColumn id="16" xr3:uid="{837759CC-C66A-7545-9181-808AA9E515E8}" name="6-Oct"/>
     <tableColumn id="17" xr3:uid="{5CEBC01F-BB5C-DC4F-8556-2D49D17A1515}" name="8-Oct"/>
     <tableColumn id="18" xr3:uid="{5287C0EB-DD50-0042-95DC-6FEF77731CA1}" name="15-Oct"/>
+    <tableColumn id="19" xr3:uid="{77E80317-2A5E-45FA-AA0D-80F8367D8A41}" name="25-Oct"/>
+    <tableColumn id="20" xr3:uid="{3B3A1857-09D1-4954-B32C-FC6D205136B1}" name="27-Oct"/>
+    <tableColumn id="21" xr3:uid="{81BEA44E-0713-4370-A795-4DCC6FCDFA7C}" name="1-Nov"/>
+    <tableColumn id="22" xr3:uid="{3EC87AB0-3C96-4028-8B89-3D39C2E9AB8B}" name="3-Nov"/>
+    <tableColumn id="23" xr3:uid="{02625990-ED12-4EE9-B01E-F98DA0506ACE}" name="5-Nov"/>
+    <tableColumn id="24" xr3:uid="{5E8D9243-DE0A-4D5B-A2E5-696FE38F68EC}" name="8-Nov"/>
+    <tableColumn id="25" xr3:uid="{57881E79-FEC7-466A-84D6-2F3B1C0EFFB9}" name="10-Nov"/>
+    <tableColumn id="26" xr3:uid="{B3E8B6E6-04F0-42BE-A85D-580FEB938D66}" name="12-Nov"/>
+    <tableColumn id="27" xr3:uid="{EDBB647C-43A8-4B7B-B9ED-89BD6FBCE6A2}" name="15-Nov"/>
+    <tableColumn id="28" xr3:uid="{53396464-4372-454B-9B3C-7594655190BB}" name="17-Nov"/>
+    <tableColumn id="29" xr3:uid="{0D114B45-023D-46CD-960B-75912579F5D5}" name="19-Nov"/>
+    <tableColumn id="30" xr3:uid="{F852A1AD-109E-42F4-A6F7-597556C727A0}" name="24-Nov"/>
+    <tableColumn id="31" xr3:uid="{B13F40A9-CCA7-48B0-864F-8BDB010203AA}" name="3-Dec"/>
+    <tableColumn id="32" xr3:uid="{5C6EEA29-113A-4D20-97A7-58121BA8166D}" name="6-Dec"/>
+    <tableColumn id="33" xr3:uid="{0197C560-F2E6-41BA-A814-B4112654017D}" name="8-Dec"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -611,20 +693,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C309FD-2083-5844-BEDB-30F87C39EC3C}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="4" width="12.33203125" customWidth="1"/>
-    <col min="15" max="18" width="11.6640625" customWidth="1"/>
+    <col min="3" max="4" width="12.375" customWidth="1"/>
+    <col min="15" max="18" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -679,8 +761,53 @@
       <c r="R1" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -691,8 +818,8 @@
         <v>28</v>
       </c>
       <c r="D2">
-        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>14</v>
+        <f>SUM(Table2[[#This Row],[1-Sep]:[8-Dec]])</f>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -736,8 +863,29 @@
       <c r="R2">
         <v>1</v>
       </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20014500</v>
       </c>
@@ -748,8 +896,8 @@
         <v>45</v>
       </c>
       <c r="D3">
-        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>9</v>
+        <f>SUM(Table2[[#This Row],[1-Sep]:[8-Dec]])</f>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -778,8 +926,14 @@
       <c r="R3">
         <v>1</v>
       </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20007907</v>
       </c>
@@ -790,8 +944,8 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>7</v>
+        <f>SUM(Table2[[#This Row],[1-Sep]:[8-Dec]])</f>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -814,8 +968,29 @@
       <c r="K4">
         <v>1</v>
       </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20009766</v>
       </c>
@@ -826,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
+        <f>SUM(Table2[[#This Row],[1-Sep]:[8-Dec]])</f>
         <v>5</v>
       </c>
       <c r="E5">
@@ -845,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20005442</v>
       </c>
@@ -856,8 +1031,8 @@
         <v>41</v>
       </c>
       <c r="D6">
-        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>14</v>
+        <f>SUM(Table2[[#This Row],[1-Sep]:[8-Dec]])</f>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -901,8 +1076,44 @@
       <c r="R6">
         <v>1</v>
       </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -913,8 +1124,8 @@
         <v>31</v>
       </c>
       <c r="D7">
-        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>14</v>
+        <f>SUM(Table2[[#This Row],[1-Sep]:[8-Dec]])</f>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -958,8 +1169,53 @@
       <c r="R7">
         <v>1</v>
       </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -970,8 +1226,8 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>14</v>
+        <f>SUM(Table2[[#This Row],[1-Sep]:[8-Dec]])</f>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1015,8 +1271,41 @@
       <c r="R8">
         <v>1</v>
       </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1027,8 +1316,8 @@
         <v>39</v>
       </c>
       <c r="D9">
-        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>4</v>
+        <f>SUM(Table2[[#This Row],[1-Sep]:[8-Dec]])</f>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1042,8 +1331,29 @@
       <c r="R9">
         <v>1</v>
       </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1054,8 +1364,8 @@
         <v>18</v>
       </c>
       <c r="D10">
-        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>13</v>
+        <f>SUM(Table2[[#This Row],[1-Sep]:[8-Dec]])</f>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1096,8 +1406,38 @@
       <c r="R10">
         <v>1</v>
       </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20016821</v>
       </c>
@@ -1108,8 +1448,8 @@
         <v>12</v>
       </c>
       <c r="D11">
-        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>14</v>
+        <f>SUM(Table2[[#This Row],[1-Sep]:[8-Dec]])</f>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1153,8 +1493,53 @@
       <c r="R11">
         <v>1</v>
       </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20008352</v>
       </c>
@@ -1165,8 +1550,8 @@
         <v>43</v>
       </c>
       <c r="D12">
-        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>14</v>
+        <f>SUM(Table2[[#This Row],[1-Sep]:[8-Dec]])</f>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1210,8 +1595,53 @@
       <c r="R12">
         <v>1</v>
       </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1222,8 +1652,8 @@
         <v>25</v>
       </c>
       <c r="D13">
-        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>14</v>
+        <f>SUM(Table2[[#This Row],[1-Sep]:[8-Dec]])</f>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1267,8 +1697,47 @@
       <c r="R13">
         <v>1</v>
       </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20010417</v>
       </c>
@@ -1279,8 +1748,8 @@
         <v>20</v>
       </c>
       <c r="D14">
-        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>14</v>
+        <f>SUM(Table2[[#This Row],[1-Sep]:[8-Dec]])</f>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1324,8 +1793,53 @@
       <c r="R14">
         <v>1</v>
       </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20016819</v>
       </c>
@@ -1336,8 +1850,8 @@
         <v>10</v>
       </c>
       <c r="D15">
-        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>13</v>
+        <f>SUM(Table2[[#This Row],[1-Sep]:[8-Dec]])</f>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1378,8 +1892,47 @@
       <c r="R15">
         <v>1</v>
       </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1390,8 +1943,8 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>14</v>
+        <f>SUM(Table2[[#This Row],[1-Sep]:[8-Dec]])</f>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1435,8 +1988,53 @@
       <c r="R16">
         <v>1</v>
       </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20010981</v>
       </c>
@@ -1447,8 +2045,8 @@
         <v>33</v>
       </c>
       <c r="D17">
-        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>7</v>
+        <f>SUM(Table2[[#This Row],[1-Sep]:[8-Dec]])</f>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1471,8 +2069,11 @@
       <c r="L17">
         <v>1</v>
       </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20013614</v>
       </c>
@@ -1483,8 +2084,8 @@
         <v>8</v>
       </c>
       <c r="D18">
-        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>13</v>
+        <f>SUM(Table2[[#This Row],[1-Sep]:[8-Dec]])</f>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1525,8 +2126,53 @@
       <c r="Q18">
         <v>1</v>
       </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1537,8 +2183,8 @@
         <v>36</v>
       </c>
       <c r="D19">
-        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>10</v>
+        <f>SUM(Table2[[#This Row],[1-Sep]:[8-Dec]])</f>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1570,14 +2216,23 @@
       <c r="P19">
         <v>1</v>
       </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>61</v>
       </c>
       <c r="D20">
-        <f>SUM(Table2[[#This Row],[1-Sep]:[15-Oct]])</f>
-        <v>14</v>
+        <f>SUM(Table2[[#This Row],[1-Sep]:[8-Dec]])</f>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1619,13 +2274,61 @@
         <v>1</v>
       </c>
       <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D19">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>11</formula>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grades/Slack Participation.xlsx
+++ b/Grades/Slack Participation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Teaching\Classes\Math 243\Fall 2021\course-materials\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F3374F-EAE0-42A0-B058-1E3D9605F45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B04448-0D43-42D5-B1C8-26B8BBF74836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="870" windowWidth="24780" windowHeight="15330" xr2:uid="{E2B26994-3EE5-964D-9F2F-EA1665179E5C}"/>
+    <workbookView xWindow="2340" yWindow="870" windowWidth="23745" windowHeight="15330" xr2:uid="{E2B26994-3EE5-964D-9F2F-EA1665179E5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>reed_id</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>8-Dec</t>
+  </si>
+  <si>
+    <t>N_participation</t>
   </si>
 </sst>
 </file>
@@ -307,17 +310,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -330,11 +323,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="5" tint="-0.24994659260841701"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -361,7 +354,7 @@
     <tableColumn id="1" xr3:uid="{77F8F90F-5C8E-BC4C-B545-FA75B259CA8F}" name="reed_id"/>
     <tableColumn id="2" xr3:uid="{7146B570-825A-7D4C-890F-90E736404710}" name="last_name"/>
     <tableColumn id="3" xr3:uid="{D61C3733-DDE0-7A4F-8F95-3BE6FC83489B}" name="first_name"/>
-    <tableColumn id="6" xr3:uid="{33DCE94D-B2FF-944F-8324-A05F2830EE55}" name="Total"/>
+    <tableColumn id="6" xr3:uid="{33DCE94D-B2FF-944F-8324-A05F2830EE55}" name="N_participation"/>
     <tableColumn id="4" xr3:uid="{C524DDEB-2F3A-3448-9786-159474E2DF2D}" name="1-Sep"/>
     <tableColumn id="5" xr3:uid="{A435395F-A4DA-0145-9160-A4A3311B3E8F}" name="3-Sep"/>
     <tableColumn id="7" xr3:uid="{21C90B51-C51E-7741-B6FE-1005783D12DE}" name="8-Sep"/>
@@ -696,7 +689,7 @@
   <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -717,7 +710,7 @@
         <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>47</v>
@@ -2324,10 +2317,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D19">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
